--- a/Code/Results/Cases/Case_8_22/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_22/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.89358215755152</v>
+        <v>18.50976474736633</v>
       </c>
       <c r="C2">
-        <v>11.68044450299364</v>
+        <v>12.17422184870701</v>
       </c>
       <c r="D2">
-        <v>4.822906081711937</v>
+        <v>5.062953175421383</v>
       </c>
       <c r="E2">
-        <v>7.629528598830682</v>
+        <v>7.818055510714444</v>
       </c>
       <c r="F2">
-        <v>23.88800956954209</v>
+        <v>22.86760705837239</v>
       </c>
       <c r="G2">
-        <v>2.104810912345573</v>
+        <v>4.36573241630883</v>
       </c>
       <c r="H2">
-        <v>2.654681174616464</v>
+        <v>2.422350786550874</v>
       </c>
       <c r="I2">
-        <v>3.174653749245709</v>
+        <v>2.923545006895563</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.36756924865109</v>
+        <v>15.47803315392514</v>
       </c>
       <c r="L2">
-        <v>6.123005226276821</v>
+        <v>12.82986948577297</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.08271314901774</v>
       </c>
       <c r="N2">
-        <v>6.963603600869877</v>
+        <v>6.166141528530162</v>
       </c>
       <c r="O2">
-        <v>12.41350417655374</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>13.10698429663265</v>
+        <v>7.157693462505506</v>
       </c>
       <c r="Q2">
-        <v>17.87783570713696</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>12.28865718751348</v>
+      </c>
+      <c r="R2">
+        <v>12.93914867214218</v>
+      </c>
+      <c r="S2">
+        <v>16.97413878201152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.70570551343187</v>
+        <v>17.34898016272322</v>
       </c>
       <c r="C3">
-        <v>11.06226951774584</v>
+        <v>11.50751071311357</v>
       </c>
       <c r="D3">
-        <v>4.746711881171386</v>
+        <v>5.006024277040257</v>
       </c>
       <c r="E3">
-        <v>7.569012424895247</v>
+        <v>7.786794931145445</v>
       </c>
       <c r="F3">
-        <v>23.5152707103358</v>
+        <v>22.49501311572315</v>
       </c>
       <c r="G3">
-        <v>2.108772967000901</v>
+        <v>4.882282744503161</v>
       </c>
       <c r="H3">
-        <v>2.855323539822228</v>
+        <v>2.597602960234699</v>
       </c>
       <c r="I3">
-        <v>3.332084250799325</v>
+        <v>3.053141341201563</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.39167079389957</v>
+        <v>15.50509351651962</v>
       </c>
       <c r="L3">
-        <v>6.083247301768978</v>
+        <v>12.94322614281024</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.03266114848511</v>
       </c>
       <c r="N3">
-        <v>6.805762163463718</v>
+        <v>6.134394046936849</v>
       </c>
       <c r="O3">
-        <v>11.87339791751991</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>13.20823186074207</v>
+        <v>6.996142463398004</v>
       </c>
       <c r="Q3">
-        <v>17.6858309167328</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>11.74287526780962</v>
+      </c>
+      <c r="R3">
+        <v>13.01051883546354</v>
+      </c>
+      <c r="S3">
+        <v>16.77029158941967</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.93273016763462</v>
+        <v>16.59169083369797</v>
       </c>
       <c r="C4">
-        <v>10.66627549301905</v>
+        <v>11.08089542143266</v>
       </c>
       <c r="D4">
-        <v>4.700035006521914</v>
+        <v>4.972085352099249</v>
       </c>
       <c r="E4">
-        <v>7.530719356908487</v>
+        <v>7.767075242708896</v>
       </c>
       <c r="F4">
-        <v>23.29156586945127</v>
+        <v>22.26779696077284</v>
       </c>
       <c r="G4">
-        <v>2.111293389836789</v>
+        <v>5.211110623935534</v>
       </c>
       <c r="H4">
-        <v>2.983077914475019</v>
+        <v>2.709276275815244</v>
       </c>
       <c r="I4">
-        <v>3.433090778863367</v>
+        <v>3.136725416038973</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.41090169873185</v>
+        <v>15.52406195767779</v>
       </c>
       <c r="L4">
-        <v>6.057847580306186</v>
+        <v>13.01341070684787</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.01968511128594</v>
       </c>
       <c r="N4">
-        <v>6.707732958751428</v>
+        <v>6.11414096279095</v>
       </c>
       <c r="O4">
-        <v>11.52945491414538</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>13.27265825353089</v>
+        <v>6.89612655046798</v>
       </c>
       <c r="Q4">
-        <v>17.57321462932963</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>11.39436758390644</v>
+      </c>
+      <c r="R4">
+        <v>13.05678650397265</v>
+      </c>
+      <c r="S4">
+        <v>16.64715024132548</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.60184008020354</v>
+        <v>16.26685353437756</v>
       </c>
       <c r="C5">
-        <v>10.50731312472563</v>
+        <v>10.90942558626084</v>
       </c>
       <c r="D5">
-        <v>4.681520994638884</v>
+        <v>4.959005492085645</v>
       </c>
       <c r="E5">
-        <v>7.514389934858643</v>
+        <v>7.75852517609933</v>
       </c>
       <c r="F5">
-        <v>23.19518066102962</v>
+        <v>22.16891203771742</v>
       </c>
       <c r="G5">
-        <v>2.112349259288498</v>
+        <v>5.348948454366965</v>
       </c>
       <c r="H5">
-        <v>3.036616542741312</v>
+        <v>2.756105702731769</v>
       </c>
       <c r="I5">
-        <v>3.47801383723266</v>
+        <v>3.174986375564188</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.41520350562828</v>
+        <v>15.52773851226167</v>
       </c>
       <c r="L5">
-        <v>6.047084819205184</v>
+        <v>13.03784935302109</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.0162228070548</v>
       </c>
       <c r="N5">
-        <v>6.668676911033414</v>
+        <v>6.105564026211859</v>
       </c>
       <c r="O5">
-        <v>11.38557920591509</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>13.29988297075507</v>
+        <v>6.856341924525196</v>
       </c>
       <c r="Q5">
-        <v>17.52362906993397</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>11.24833233304165</v>
+      </c>
+      <c r="R5">
+        <v>13.07675236798782</v>
+      </c>
+      <c r="S5">
+        <v>16.5923075672258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.54013058714257</v>
+        <v>16.20606467235435</v>
       </c>
       <c r="C6">
-        <v>10.48859388095956</v>
+        <v>10.88878405158075</v>
       </c>
       <c r="D6">
-        <v>4.679022052404424</v>
+        <v>4.957444029611708</v>
       </c>
       <c r="E6">
-        <v>7.511132259308149</v>
+        <v>7.756636030931308</v>
       </c>
       <c r="F6">
-        <v>23.17120252570706</v>
+        <v>22.14426025454977</v>
       </c>
       <c r="G6">
-        <v>2.112533759881064</v>
+        <v>5.373075180539963</v>
       </c>
       <c r="H6">
-        <v>3.045963007477125</v>
+        <v>2.764294777161385</v>
       </c>
       <c r="I6">
-        <v>3.488954846077743</v>
+        <v>3.185509940551849</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.41033538193958</v>
+        <v>15.52273044829448</v>
       </c>
       <c r="L6">
-        <v>6.045088164721051</v>
+        <v>13.03665554413514</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.01266946893666</v>
       </c>
       <c r="N6">
-        <v>6.663568804915027</v>
+        <v>6.103970719192621</v>
       </c>
       <c r="O6">
-        <v>11.3605595905939</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>13.30494082127861</v>
+        <v>6.851120509622087</v>
       </c>
       <c r="Q6">
-        <v>17.50932601472667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>11.22291218333325</v>
+      </c>
+      <c r="R6">
+        <v>13.08072900714837</v>
+      </c>
+      <c r="S6">
+        <v>16.57688553148433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.9120070827493</v>
+        <v>16.55175526730034</v>
       </c>
       <c r="C7">
-        <v>10.68539203944706</v>
+        <v>11.07289727763567</v>
       </c>
       <c r="D7">
-        <v>4.701341079128427</v>
+        <v>4.981876660042044</v>
       </c>
       <c r="E7">
-        <v>7.52907625411521</v>
+        <v>7.766907454080366</v>
       </c>
       <c r="F7">
-        <v>23.26837867612685</v>
+        <v>22.20253938384239</v>
       </c>
       <c r="G7">
-        <v>2.111328524190406</v>
+        <v>5.269425947687165</v>
       </c>
       <c r="H7">
-        <v>2.984830709488323</v>
+        <v>2.712420473981508</v>
       </c>
       <c r="I7">
-        <v>3.442733088425035</v>
+        <v>3.14955226168037</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.39554920358417</v>
+        <v>15.49002563805077</v>
       </c>
       <c r="L7">
-        <v>6.057189095126516</v>
+        <v>12.98266557223411</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.999198451141647</v>
       </c>
       <c r="N7">
-        <v>6.710977895259483</v>
+        <v>6.112973480186231</v>
       </c>
       <c r="O7">
-        <v>11.52494662293321</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>13.27446424348729</v>
+        <v>6.897732459656257</v>
       </c>
       <c r="Q7">
-        <v>17.55581287985228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>11.38167362615633</v>
+      </c>
+      <c r="R7">
+        <v>13.06112506033547</v>
+      </c>
+      <c r="S7">
+        <v>16.59419680678649</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.47310997754832</v>
+        <v>18.03990264176642</v>
       </c>
       <c r="C8">
-        <v>11.49719785319552</v>
+        <v>11.88919490130004</v>
       </c>
       <c r="D8">
-        <v>4.79864434851363</v>
+        <v>5.072779102373173</v>
       </c>
       <c r="E8">
-        <v>7.607090707761623</v>
+        <v>7.809812954689399</v>
       </c>
       <c r="F8">
-        <v>23.73011831527587</v>
+        <v>22.57561446492608</v>
       </c>
       <c r="G8">
-        <v>2.10618525932806</v>
+        <v>4.839134850607199</v>
       </c>
       <c r="H8">
-        <v>2.724216976702479</v>
+        <v>2.488065783067672</v>
       </c>
       <c r="I8">
-        <v>3.239606199586652</v>
+        <v>2.985866830035909</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.35465186854174</v>
+        <v>15.40576230504747</v>
       </c>
       <c r="L8">
-        <v>6.108885538512857</v>
+        <v>12.79994398198145</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.00689100376212</v>
       </c>
       <c r="N8">
-        <v>6.914297326649805</v>
+        <v>6.152855155822476</v>
       </c>
       <c r="O8">
-        <v>12.22666375443263</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>13.14362344120117</v>
+        <v>7.101800136135012</v>
       </c>
       <c r="Q8">
-        <v>17.78875817492973</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>12.07450819511279</v>
+      </c>
+      <c r="R8">
+        <v>12.97484603944753</v>
+      </c>
+      <c r="S8">
+        <v>16.76751253850863</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.21268226404781</v>
+        <v>20.70074469315196</v>
       </c>
       <c r="C9">
-        <v>12.92163756487311</v>
+        <v>13.41419833705746</v>
       </c>
       <c r="D9">
-        <v>4.987020300426294</v>
+        <v>5.224806621873585</v>
       </c>
       <c r="E9">
-        <v>7.753774860056065</v>
+        <v>7.887523828338552</v>
       </c>
       <c r="F9">
-        <v>24.71159773246009</v>
+        <v>23.50777380292979</v>
       </c>
       <c r="G9">
-        <v>2.096745608864861</v>
+        <v>3.746035269263452</v>
       </c>
       <c r="H9">
-        <v>2.246921649491431</v>
+        <v>2.072646212534591</v>
       </c>
       <c r="I9">
-        <v>2.860468270466177</v>
+        <v>2.673428905217881</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.33842564044978</v>
+        <v>15.35486826359337</v>
       </c>
       <c r="L9">
-        <v>6.203416292592594</v>
+        <v>12.53058645950357</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.22125157647138</v>
       </c>
       <c r="N9">
-        <v>7.29614404526936</v>
+        <v>6.228063950601903</v>
       </c>
       <c r="O9">
-        <v>13.50330893127858</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>12.9021139479635</v>
+        <v>7.493157655241673</v>
       </c>
       <c r="Q9">
-        <v>18.31630641941533</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>13.35544365190392</v>
+      </c>
+      <c r="R9">
+        <v>12.81341009955734</v>
+      </c>
+      <c r="S9">
+        <v>17.28056967469757</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.96636106122658</v>
+        <v>22.31449024536749</v>
       </c>
       <c r="C10">
-        <v>13.91410434449901</v>
+        <v>14.33989050161017</v>
       </c>
       <c r="D10">
-        <v>5.101719074365223</v>
+        <v>5.363917898083245</v>
       </c>
       <c r="E10">
-        <v>7.831045284299091</v>
+        <v>7.926070209520282</v>
       </c>
       <c r="F10">
-        <v>25.32017780352321</v>
+        <v>23.85182018511401</v>
       </c>
       <c r="G10">
-        <v>2.090322168726249</v>
+        <v>4.464794336573704</v>
       </c>
       <c r="H10">
-        <v>1.946076627258367</v>
+        <v>1.822753432104585</v>
       </c>
       <c r="I10">
-        <v>2.613057330068782</v>
+        <v>2.501778232762832</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.28412448436681</v>
+        <v>15.1690596564267</v>
       </c>
       <c r="L10">
-        <v>6.269246361246678</v>
+        <v>12.22052067773723</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>10.32688037336011</v>
       </c>
       <c r="N10">
-        <v>7.505299596705223</v>
+        <v>6.279468725085071</v>
       </c>
       <c r="O10">
-        <v>14.30571582847982</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>12.74796288110722</v>
+        <v>7.700046966840617</v>
       </c>
       <c r="Q10">
-        <v>18.64485120755015</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>14.11803371964657</v>
+      </c>
+      <c r="R10">
+        <v>12.74264165005252</v>
+      </c>
+      <c r="S10">
+        <v>17.40061734078292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.36059467144677</v>
+        <v>22.55524763989914</v>
       </c>
       <c r="C11">
-        <v>14.54842636438262</v>
+        <v>14.67828857840792</v>
       </c>
       <c r="D11">
-        <v>4.952155229692867</v>
+        <v>5.29894559181103</v>
       </c>
       <c r="E11">
-        <v>7.717964630383575</v>
+        <v>7.807538103027728</v>
       </c>
       <c r="F11">
-        <v>24.51507331955743</v>
+        <v>22.62310048025948</v>
       </c>
       <c r="G11">
-        <v>2.088396821753695</v>
+        <v>8.133523846786565</v>
       </c>
       <c r="H11">
-        <v>2.87917772389837</v>
+        <v>2.815323262360556</v>
       </c>
       <c r="I11">
-        <v>2.563578021989177</v>
+        <v>2.557542598173824</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.73136795900646</v>
+        <v>14.46400067512009</v>
       </c>
       <c r="L11">
-        <v>6.343514408580892</v>
+        <v>11.65781382918088</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>9.857002086623218</v>
       </c>
       <c r="N11">
-        <v>7.055431143985535</v>
+        <v>6.356402222005518</v>
       </c>
       <c r="O11">
-        <v>14.09455629868099</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>12.79271450461664</v>
+        <v>7.220490172256685</v>
       </c>
       <c r="Q11">
-        <v>18.1164098875487</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>13.82692297608145</v>
+      </c>
+      <c r="R11">
+        <v>12.88889021540003</v>
+      </c>
+      <c r="S11">
+        <v>16.51255276702392</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.3521656492448</v>
+        <v>22.49189418996336</v>
       </c>
       <c r="C12">
-        <v>14.85730720441132</v>
+        <v>14.82634746616336</v>
       </c>
       <c r="D12">
-        <v>4.802030198821881</v>
+        <v>5.180236835106275</v>
       </c>
       <c r="E12">
-        <v>7.705056232516664</v>
+        <v>7.778126288978133</v>
       </c>
       <c r="F12">
-        <v>23.72183449391366</v>
+        <v>21.67147666912536</v>
       </c>
       <c r="G12">
-        <v>2.088009294081478</v>
+        <v>9.983467115526127</v>
       </c>
       <c r="H12">
-        <v>4.227019671346128</v>
+        <v>4.186820430746129</v>
       </c>
       <c r="I12">
-        <v>2.552581842246878</v>
+        <v>2.560792091049803</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.29940329993328</v>
+        <v>14.00662491090643</v>
       </c>
       <c r="L12">
-        <v>6.440964436806921</v>
+        <v>11.32880997414419</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>9.504919275671293</v>
       </c>
       <c r="N12">
-        <v>6.641774256551414</v>
+        <v>6.458224264079883</v>
       </c>
       <c r="O12">
-        <v>13.74546103317446</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>12.87486906411354</v>
+        <v>6.787561803093276</v>
       </c>
       <c r="Q12">
-        <v>17.61368902455391</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>13.44312447254254</v>
+      </c>
+      <c r="R12">
+        <v>13.02850744344382</v>
+      </c>
+      <c r="S12">
+        <v>15.87374025214683</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.01441489900658</v>
+        <v>22.20731536452858</v>
       </c>
       <c r="C13">
-        <v>14.96900846781983</v>
+        <v>14.92388319334035</v>
       </c>
       <c r="D13">
-        <v>4.643993486287518</v>
+        <v>4.997948533008503</v>
       </c>
       <c r="E13">
-        <v>7.763392142519429</v>
+        <v>7.825686407164378</v>
       </c>
       <c r="F13">
-        <v>22.84883125979394</v>
+        <v>20.91956407257048</v>
       </c>
       <c r="G13">
-        <v>2.088813017699173</v>
+        <v>9.593173546837123</v>
       </c>
       <c r="H13">
-        <v>5.636588550910262</v>
+        <v>5.602942245177054</v>
       </c>
       <c r="I13">
-        <v>2.586401661119425</v>
+        <v>2.533337013818536</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.91199837748342</v>
+        <v>13.7174553945676</v>
       </c>
       <c r="L13">
-        <v>6.557148087914262</v>
+        <v>11.14394028037737</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>9.239737581626523</v>
       </c>
       <c r="N13">
-        <v>6.236683542578865</v>
+        <v>6.582514742113696</v>
       </c>
       <c r="O13">
-        <v>13.25738457640768</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>12.98883386664467</v>
+        <v>6.372570838487671</v>
       </c>
       <c r="Q13">
-        <v>17.0707436806534</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>12.96882263971006</v>
+      </c>
+      <c r="R13">
+        <v>13.14642388935337</v>
+      </c>
+      <c r="S13">
+        <v>15.43017713817352</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.62015904636852</v>
+        <v>21.89849085709239</v>
       </c>
       <c r="C14">
-        <v>14.96482897634243</v>
+        <v>14.97437753640896</v>
       </c>
       <c r="D14">
-        <v>4.53105782194575</v>
+        <v>4.847491262654142</v>
       </c>
       <c r="E14">
-        <v>7.846705169344499</v>
+        <v>7.911949208750261</v>
       </c>
       <c r="F14">
-        <v>22.19442502732949</v>
+        <v>20.46670138529693</v>
       </c>
       <c r="G14">
-        <v>2.089917731403097</v>
+        <v>8.343123579679313</v>
       </c>
       <c r="H14">
-        <v>6.64039043019245</v>
+        <v>6.607413167777749</v>
       </c>
       <c r="I14">
-        <v>2.6335112990325</v>
+        <v>2.519369376648019</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.66076469934331</v>
+        <v>13.58087278230489</v>
       </c>
       <c r="L14">
-        <v>6.650868471360673</v>
+        <v>11.06776415084576</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>9.08945449845657</v>
       </c>
       <c r="N14">
-        <v>5.963657788884223</v>
+        <v>6.683768217988476</v>
       </c>
       <c r="O14">
-        <v>12.84664314801283</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>13.08377725326683</v>
+        <v>6.096167665948657</v>
       </c>
       <c r="Q14">
-        <v>16.66778790108538</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>12.58855017370877</v>
+      </c>
+      <c r="R14">
+        <v>13.21710729691316</v>
+      </c>
+      <c r="S14">
+        <v>15.19463371779939</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.44735889264461</v>
+        <v>21.76691368534784</v>
       </c>
       <c r="C15">
-        <v>14.92838723499638</v>
+        <v>14.97933238011396</v>
       </c>
       <c r="D15">
-        <v>4.502046916759596</v>
+        <v>4.801564716374117</v>
       </c>
       <c r="E15">
-        <v>7.868797795015853</v>
+        <v>7.940478195492497</v>
       </c>
       <c r="F15">
-        <v>22.01293465742131</v>
+        <v>20.38313615069447</v>
       </c>
       <c r="G15">
-        <v>2.090459423190173</v>
+        <v>7.631014867476947</v>
       </c>
       <c r="H15">
-        <v>6.874984148791137</v>
+        <v>6.840925098188223</v>
       </c>
       <c r="I15">
-        <v>2.659607025722504</v>
+        <v>2.53996242329087</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.60496390684657</v>
+        <v>13.57193730782528</v>
       </c>
       <c r="L15">
-        <v>6.671487215417153</v>
+        <v>11.06920378606924</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>9.064696751874205</v>
       </c>
       <c r="N15">
-        <v>5.898216779968068</v>
+        <v>6.707435433023698</v>
       </c>
       <c r="O15">
-        <v>12.71594473505088</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>13.11255685753627</v>
+        <v>6.031430073487528</v>
       </c>
       <c r="Q15">
-        <v>16.55706644578094</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>12.47409610153754</v>
+      </c>
+      <c r="R15">
+        <v>13.2286633955255</v>
+      </c>
+      <c r="S15">
+        <v>15.16560139891339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.76490238908928</v>
+        <v>21.2514829502387</v>
       </c>
       <c r="C16">
-        <v>14.51833452483121</v>
+        <v>14.80108165221637</v>
       </c>
       <c r="D16">
-        <v>4.483942242891905</v>
+        <v>4.720533571037242</v>
       </c>
       <c r="E16">
-        <v>7.817139619923206</v>
+        <v>7.934272596406506</v>
       </c>
       <c r="F16">
-        <v>21.89622939014792</v>
+        <v>20.66900399603243</v>
       </c>
       <c r="G16">
-        <v>2.093046335588204</v>
+        <v>4.509791111046462</v>
       </c>
       <c r="H16">
-        <v>6.683259255354201</v>
+        <v>6.636560606153165</v>
       </c>
       <c r="I16">
-        <v>2.763957342811207</v>
+        <v>2.614483604592665</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.70055100753873</v>
+        <v>13.82419945988881</v>
       </c>
       <c r="L16">
-        <v>6.615070264923586</v>
+        <v>11.28066528613227</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>9.192597918970268</v>
       </c>
       <c r="N16">
-        <v>5.886338011479983</v>
+        <v>6.662042320428227</v>
       </c>
       <c r="O16">
-        <v>12.45237502892522</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>13.14364571054273</v>
+        <v>6.033025797953564</v>
       </c>
       <c r="Q16">
-        <v>16.50563412698002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>12.28321102131782</v>
+      </c>
+      <c r="R16">
+        <v>13.16671288053256</v>
+      </c>
+      <c r="S16">
+        <v>15.45083187882668</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.45014198179116</v>
+        <v>21.00673188501592</v>
       </c>
       <c r="C17">
-        <v>14.20014533112509</v>
+        <v>14.5970035769069</v>
       </c>
       <c r="D17">
-        <v>4.53013102951659</v>
+        <v>4.745154349043714</v>
       </c>
       <c r="E17">
-        <v>7.72557864884848</v>
+        <v>7.864367679752084</v>
       </c>
       <c r="F17">
-        <v>22.15991700468994</v>
+        <v>21.08495426001789</v>
       </c>
       <c r="G17">
-        <v>2.094450601264449</v>
+        <v>3.553179890539884</v>
       </c>
       <c r="H17">
-        <v>5.974220594565677</v>
+        <v>5.914760367688248</v>
       </c>
       <c r="I17">
-        <v>2.819825083904142</v>
+        <v>2.655623680422637</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.90521479980076</v>
+        <v>14.0754586386235</v>
       </c>
       <c r="L17">
-        <v>6.518546666854943</v>
+        <v>11.48367677384809</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>9.350848871078341</v>
       </c>
       <c r="N17">
-        <v>6.020322309008807</v>
+        <v>6.568587532103668</v>
       </c>
       <c r="O17">
-        <v>12.47464497475043</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>13.11877675425365</v>
+        <v>6.178144113940147</v>
       </c>
       <c r="Q17">
-        <v>16.68320175815428</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>12.33516800796359</v>
+      </c>
+      <c r="R17">
+        <v>13.09764939002445</v>
+      </c>
+      <c r="S17">
+        <v>15.75573685707806</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.4369468831111</v>
+        <v>21.00478345145287</v>
       </c>
       <c r="C18">
-        <v>13.91482603170487</v>
+        <v>14.38300107818226</v>
       </c>
       <c r="D18">
-        <v>4.638686188018247</v>
+        <v>4.846368451332099</v>
       </c>
       <c r="E18">
-        <v>7.635285080920486</v>
+        <v>7.77860192156397</v>
       </c>
       <c r="F18">
-        <v>22.79256510894654</v>
+        <v>21.75420232940054</v>
       </c>
       <c r="G18">
-        <v>2.09493129561008</v>
+        <v>3.294417497664182</v>
       </c>
       <c r="H18">
-        <v>4.773371297476938</v>
+        <v>4.695776389264665</v>
       </c>
       <c r="I18">
-        <v>2.827973716589766</v>
+        <v>2.656597292191489</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.24078319765957</v>
+        <v>14.40206033424559</v>
       </c>
       <c r="L18">
-        <v>6.396733905365427</v>
+        <v>11.73550483979795</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>9.588918597395738</v>
       </c>
       <c r="N18">
-        <v>6.309110931522588</v>
+        <v>6.443722677102646</v>
       </c>
       <c r="O18">
-        <v>12.74787643144673</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>13.04619614054526</v>
+        <v>6.479597254007502</v>
       </c>
       <c r="Q18">
-        <v>17.0867126200189</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>12.61920848294315</v>
+      </c>
+      <c r="R18">
+        <v>13.00255384715785</v>
+      </c>
+      <c r="S18">
+        <v>16.19122363553657</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.641581496958</v>
+        <v>21.18661155239194</v>
       </c>
       <c r="C19">
-        <v>13.71615363968352</v>
+        <v>14.23600282177487</v>
       </c>
       <c r="D19">
-        <v>4.795757711234694</v>
+        <v>5.00219219777255</v>
       </c>
       <c r="E19">
-        <v>7.621759299348025</v>
+        <v>7.755825375777796</v>
       </c>
       <c r="F19">
-        <v>23.63567327432608</v>
+        <v>22.57061126869682</v>
       </c>
       <c r="G19">
-        <v>2.094612844974851</v>
+        <v>3.190174893955473</v>
       </c>
       <c r="H19">
-        <v>3.385428515850699</v>
+        <v>3.27889860791167</v>
       </c>
       <c r="I19">
-        <v>2.815320961365083</v>
+        <v>2.647290206915217</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.63990632734016</v>
+        <v>14.76119646805366</v>
       </c>
       <c r="L19">
-        <v>6.296180035719972</v>
+        <v>12.0040010920675</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>9.869487429158736</v>
       </c>
       <c r="N19">
-        <v>6.726753531021449</v>
+        <v>6.334770644201408</v>
       </c>
       <c r="O19">
-        <v>13.19242671037488</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>12.95505775859841</v>
+        <v>6.911016609226693</v>
       </c>
       <c r="Q19">
-        <v>17.61180887488999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>13.06458332798854</v>
+      </c>
+      <c r="R19">
+        <v>12.901401690979</v>
+      </c>
+      <c r="S19">
+        <v>16.69701879364612</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.47852518536072</v>
+        <v>21.91558744436551</v>
       </c>
       <c r="C20">
-        <v>13.71423500566134</v>
+        <v>14.23879955602324</v>
       </c>
       <c r="D20">
-        <v>5.07509574334318</v>
+        <v>5.301919085781168</v>
       </c>
       <c r="E20">
-        <v>7.806032665844663</v>
+        <v>7.907453813929825</v>
       </c>
       <c r="F20">
-        <v>25.0910141413082</v>
+        <v>23.82817780757951</v>
       </c>
       <c r="G20">
-        <v>2.092043129553194</v>
+        <v>3.376247322149432</v>
       </c>
       <c r="H20">
-        <v>2.025757668927923</v>
+        <v>1.884138082967506</v>
       </c>
       <c r="I20">
-        <v>2.708893991069997</v>
+        <v>2.564805287931373</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16.24716155616839</v>
+        <v>15.232933016577</v>
       </c>
       <c r="L20">
-        <v>6.251120591583073</v>
+        <v>12.311849878564</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>10.30836040046117</v>
       </c>
       <c r="N20">
-        <v>7.458557078747591</v>
+        <v>6.267457444150208</v>
       </c>
       <c r="O20">
-        <v>14.08981799836208</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>12.79477992418381</v>
+        <v>7.659091421400623</v>
       </c>
       <c r="Q20">
-        <v>18.50469636258444</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>13.93677257275605</v>
+      </c>
+      <c r="R20">
+        <v>12.75597318168007</v>
+      </c>
+      <c r="S20">
+        <v>17.43184091801087</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.8290263480444</v>
+        <v>22.90314977522008</v>
       </c>
       <c r="C21">
-        <v>14.40353810684971</v>
+        <v>14.47826009416431</v>
       </c>
       <c r="D21">
-        <v>5.198721138733848</v>
+        <v>5.604455025799625</v>
       </c>
       <c r="E21">
-        <v>7.903731331170497</v>
+        <v>8.002332842357394</v>
       </c>
       <c r="F21">
-        <v>25.76626439445838</v>
+        <v>23.58174944429754</v>
       </c>
       <c r="G21">
-        <v>2.087048084683245</v>
+        <v>9.728340183847262</v>
       </c>
       <c r="H21">
-        <v>1.757767784418116</v>
+        <v>1.677211859122355</v>
       </c>
       <c r="I21">
-        <v>2.512616942384189</v>
+        <v>2.605422486222703</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.31558167387293</v>
+        <v>14.85421475299217</v>
       </c>
       <c r="L21">
-        <v>6.299262622977528</v>
+        <v>11.91798521133609</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>10.20321769871237</v>
       </c>
       <c r="N21">
-        <v>7.714248044767631</v>
+        <v>6.292986024281539</v>
       </c>
       <c r="O21">
-        <v>14.78408143675633</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>12.66270001396884</v>
+        <v>7.888754874631891</v>
       </c>
       <c r="Q21">
-        <v>18.89314147792571</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>14.47454084228709</v>
+      </c>
+      <c r="R21">
+        <v>12.76161705076698</v>
+      </c>
+      <c r="S21">
+        <v>17.04522446508501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.66745282568073</v>
+        <v>23.50230153710836</v>
       </c>
       <c r="C22">
-        <v>14.82863137367741</v>
+        <v>14.59501810969507</v>
       </c>
       <c r="D22">
-        <v>5.265158508278981</v>
+        <v>5.806471326404432</v>
       </c>
       <c r="E22">
-        <v>7.955546385566326</v>
+        <v>8.063210471248375</v>
       </c>
       <c r="F22">
-        <v>26.17253968411497</v>
+        <v>23.33965616924139</v>
       </c>
       <c r="G22">
-        <v>2.083883346044111</v>
+        <v>14.68757648179901</v>
       </c>
       <c r="H22">
-        <v>1.598473009012502</v>
+        <v>1.564736591489249</v>
       </c>
       <c r="I22">
-        <v>2.621635074140996</v>
+        <v>2.683044896344724</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.35462236137919</v>
+        <v>14.57700893404184</v>
       </c>
       <c r="L22">
-        <v>6.330891154533179</v>
+        <v>11.65375523995666</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>10.10903735360539</v>
       </c>
       <c r="N22">
-        <v>7.841797754801226</v>
+        <v>6.311805997618391</v>
       </c>
       <c r="O22">
-        <v>15.19315834549614</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>12.58095782732452</v>
+        <v>7.996906047920474</v>
       </c>
       <c r="Q22">
-        <v>19.13204816021661</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>14.77454336849514</v>
+      </c>
+      <c r="R22">
+        <v>12.78532326541518</v>
+      </c>
+      <c r="S22">
+        <v>16.73605134248962</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.23756960995997</v>
+        <v>23.23620240222891</v>
       </c>
       <c r="C23">
-        <v>14.5838420703556</v>
+        <v>14.56793854187571</v>
       </c>
       <c r="D23">
-        <v>5.22804687510811</v>
+        <v>5.673204352792452</v>
       </c>
       <c r="E23">
-        <v>7.92936813965223</v>
+        <v>8.026315375442099</v>
       </c>
       <c r="F23">
-        <v>25.97856055757896</v>
+        <v>23.58895784774993</v>
       </c>
       <c r="G23">
-        <v>2.085546860493017</v>
+        <v>11.2236633734494</v>
       </c>
       <c r="H23">
-        <v>1.682218951354801</v>
+        <v>1.617257746973572</v>
       </c>
       <c r="I23">
-        <v>2.55461382680217</v>
+        <v>2.637004068645747</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.35101994441163</v>
+        <v>14.7861843080547</v>
       </c>
       <c r="L23">
-        <v>6.314466188010762</v>
+        <v>11.83414309147197</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>10.21219142659691</v>
       </c>
       <c r="N23">
-        <v>7.769974681443134</v>
+        <v>6.302922270438558</v>
       </c>
       <c r="O23">
-        <v>14.97860504328265</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>12.62164202267931</v>
+        <v>7.93911704115485</v>
       </c>
       <c r="Q23">
-        <v>19.02223244884159</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>14.63535757106803</v>
+      </c>
+      <c r="R23">
+        <v>12.75646945408202</v>
+      </c>
+      <c r="S23">
+        <v>17.00175163684874</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.51056867235057</v>
+        <v>21.94785353992445</v>
       </c>
       <c r="C24">
-        <v>13.65514767847543</v>
+        <v>14.18671092559859</v>
       </c>
       <c r="D24">
-        <v>5.089475986658004</v>
+        <v>5.315031590151305</v>
       </c>
       <c r="E24">
-        <v>7.826617483385911</v>
+        <v>7.9263135423493</v>
       </c>
       <c r="F24">
-        <v>25.2132571212595</v>
+        <v>23.9531758866739</v>
       </c>
       <c r="G24">
-        <v>2.092006676353699</v>
+        <v>3.331885302811838</v>
       </c>
       <c r="H24">
-        <v>2.007723368820479</v>
+        <v>1.865576612462727</v>
       </c>
       <c r="I24">
-        <v>2.688527962238431</v>
+        <v>2.540197812570274</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16.32024654904148</v>
+        <v>15.30304541198931</v>
       </c>
       <c r="L24">
-        <v>6.250268495565871</v>
+        <v>12.36484714479215</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>10.36204017019664</v>
       </c>
       <c r="N24">
-        <v>7.500017188674092</v>
+        <v>6.265200312429344</v>
       </c>
       <c r="O24">
-        <v>14.13398828798028</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>12.78456781961496</v>
+        <v>7.702048707057253</v>
       </c>
       <c r="Q24">
-        <v>18.58708188847879</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>13.9820043253708</v>
+      </c>
+      <c r="R24">
+        <v>12.74223851989536</v>
+      </c>
+      <c r="S24">
+        <v>17.51683088011706</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.48424566313967</v>
+        <v>20.01690256235716</v>
       </c>
       <c r="C25">
-        <v>12.58407709612653</v>
+        <v>13.08554996871542</v>
       </c>
       <c r="D25">
-        <v>4.938803568245693</v>
+        <v>5.174144348468756</v>
       </c>
       <c r="E25">
-        <v>7.7126464027355</v>
+        <v>7.863125997479964</v>
       </c>
       <c r="F25">
-        <v>24.40497462867121</v>
+        <v>23.27284877431282</v>
       </c>
       <c r="G25">
-        <v>2.099261907674697</v>
+        <v>3.834232157159557</v>
       </c>
       <c r="H25">
-        <v>2.373982852168227</v>
+        <v>2.181171161144364</v>
       </c>
       <c r="I25">
-        <v>2.976342256706822</v>
+        <v>2.773145312055529</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.31119132260297</v>
+        <v>15.36543067727946</v>
       </c>
       <c r="L25">
-        <v>6.177901732062497</v>
+        <v>12.60234110406923</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>10.1477201926342</v>
       </c>
       <c r="N25">
-        <v>7.200563995177464</v>
+        <v>6.20862551540995</v>
       </c>
       <c r="O25">
-        <v>13.16563082227005</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>12.96898401743769</v>
+        <v>7.397039178562719</v>
       </c>
       <c r="Q25">
-        <v>18.1401994357349</v>
+        <v>13.02758873751721</v>
+      </c>
+      <c r="R25">
+        <v>12.8548491067924</v>
+      </c>
+      <c r="S25">
+        <v>17.15827970228899</v>
       </c>
     </row>
   </sheetData>
